--- a/src/main/webapp/templaters/订单.xlsx
+++ b/src/main/webapp/templaters/订单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="19100" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <t>订单编号</t>
   </si>
   <si>
+    <t>订单类型</t>
+  </si>
+  <si>
     <t>客户姓名</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t>NO.001</t>
   </si>
   <si>
+    <t>海外订单</t>
+  </si>
+  <si>
     <t>A公司</t>
   </si>
   <si>
@@ -82,9 +88,6 @@
     <t>6.123</t>
   </si>
   <si>
-    <t>100000</t>
-  </si>
-  <si>
     <t>20000</t>
   </si>
   <si>
@@ -131,9 +134,6 @@
   </si>
   <si>
     <t>2018-12-16</t>
-  </si>
-  <si>
-    <t>150000</t>
   </si>
   <si>
     <t>礼花1</t>
@@ -163,9 +163,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -183,8 +183,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,10 +200,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,14 +215,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,6 +243,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -243,6 +259,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -252,69 +314,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,85 +329,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,19 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,73 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,11 +523,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,23 +580,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,41 +620,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -631,7 +631,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,133 +640,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,29 +1102,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="8.725" style="1"/>
-    <col min="3" max="5" width="11.8166666666667" style="2" customWidth="1"/>
-    <col min="6" max="7" width="17.125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.725" style="1"/>
-    <col min="17" max="17" width="11.8166666666667" customWidth="1"/>
+    <col min="1" max="3" width="8.72727272727273" style="1"/>
+    <col min="4" max="6" width="11.8181818181818" style="2" customWidth="1"/>
+    <col min="7" max="8" width="17.1272727272727" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.72727272727273" style="1"/>
+    <col min="18" max="18" width="11.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1133,7 +1133,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1145,7 +1145,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -1169,462 +1169,446 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>30</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P9" si="0">M2*N2</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J2">
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2">
-        <v>10</v>
-      </c>
-      <c r="M2">
-        <v>100</v>
-      </c>
-      <c r="N2">
+      <c r="O3">
+        <v>40</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O2">
-        <f t="shared" ref="O2:O9" si="0">L2*M2</f>
-        <v>1000</v>
-      </c>
-      <c r="P2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4">
+        <v>30</v>
+      </c>
+      <c r="O4">
+        <v>50</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3">
-        <v>20</v>
-      </c>
-      <c r="M3">
-        <v>200</v>
-      </c>
-      <c r="N3">
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5">
         <v>40</v>
       </c>
-      <c r="O3">
+      <c r="O5">
+        <v>60</v>
+      </c>
+      <c r="P5">
         <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="P3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4">
-        <v>40</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4">
-        <v>30</v>
-      </c>
-      <c r="M4">
-        <v>300</v>
-      </c>
-      <c r="N4">
-        <v>50</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="0"/>
-        <v>9000</v>
-      </c>
-      <c r="P4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5">
-        <v>50</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5">
-        <v>40</v>
-      </c>
-      <c r="M5">
-        <v>280</v>
-      </c>
-      <c r="N5">
-        <v>60</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="0"/>
-        <v>11200</v>
-      </c>
-      <c r="P5">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6">
         <v>20</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>40</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>10</v>
       </c>
-      <c r="M6">
-        <v>500</v>
-      </c>
-      <c r="N6">
+      <c r="O6">
         <v>100</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7">
+        <v>20</v>
+      </c>
+      <c r="O7">
+        <v>150</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7">
+      <c r="H8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8">
+        <v>40</v>
+      </c>
+      <c r="L8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8">
         <v>30</v>
       </c>
-      <c r="K7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7">
-        <v>20</v>
-      </c>
-      <c r="M7">
-        <v>600</v>
-      </c>
-      <c r="N7">
-        <v>150</v>
-      </c>
-      <c r="O7">
+      <c r="O8">
+        <v>200</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="0"/>
-        <v>12000</v>
-      </c>
-      <c r="P7">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>324235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8">
+      <c r="H9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9">
+        <v>50</v>
+      </c>
+      <c r="L9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9">
         <v>40</v>
       </c>
-      <c r="K8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8">
-        <v>30</v>
-      </c>
-      <c r="M8">
-        <v>700</v>
-      </c>
-      <c r="N8">
-        <v>200</v>
-      </c>
-      <c r="O8">
+      <c r="O9">
+        <v>250</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="0"/>
-        <v>21000</v>
-      </c>
-      <c r="P8">
-        <v>324235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9">
-        <v>50</v>
-      </c>
-      <c r="K9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9">
-        <v>40</v>
-      </c>
-      <c r="M9">
-        <v>800</v>
-      </c>
-      <c r="N9">
-        <v>250</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="0"/>
-        <v>32000</v>
-      </c>
-      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="3"/>
+    <row r="10" spans="4:6">
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="3:5">
-      <c r="C11" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="4:6">
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="4:6">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="4:6">
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="4:6">
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="3:5">
-      <c r="C15" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="4:6">
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="3:5">
-      <c r="C16" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="4:6">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="3:5">
-      <c r="C17" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="4:6">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="4:6">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="4:6">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="4:6">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="4:6">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="4:6">
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="4:6">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2:B9 B10:B1048576">
+      <formula1>"海外订单,国内订单"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
